--- a/files/611-11.xlsx
+++ b/files/611-11.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vipko\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vipko\WebstormProjects\schedule-viewer\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3A56B94-CCED-465C-8913-7F44521ED352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB57067B-3E8C-46A3-B6D2-152B86982546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1017,7 +1017,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1085,22 +1085,8 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color theme="0"/>
-      <name val="Times New Roman"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial Unicode MS"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
   </fonts>
-  <fills count="12">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1134,36 +1120,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF1736F1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1292,7 +1248,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1420,813 +1376,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="86">
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF1736F1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-9.9948118533890809E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF88ECF4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFABEF6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-9.9948118533890809E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-9.9948118533890809E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF88ECF4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFABEF6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-9.9948118533890809E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF1736F1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-9.9948118533890809E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFABEF6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF88ECF4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-9.9948118533890809E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-9.9948118533890809E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFABEF6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF88ECF4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-9.9948118533890809E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-9.9948118533890809E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFABEF6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF88ECF4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-9.9948118533890809E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-9.9948118533890809E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFABEF6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF88ECF4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-9.9948118533890809E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <mruColors>
-      <color rgb="FF1736F1"/>
-      <color rgb="FF88ECF4"/>
-      <color rgb="FFFABEF6"/>
-    </mruColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2540,8 +1701,8 @@
   </sheetPr>
   <dimension ref="A1:AC67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45:XFD45"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48:XFD50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -5091,267 +4252,267 @@
         <v>197</v>
       </c>
     </row>
-    <row r="39" spans="1:29" s="52" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A39" s="45" t="s">
+    <row r="39" spans="1:29" ht="15.75" customHeight="1">
+      <c r="A39" s="30" t="s">
         <v>146</v>
       </c>
-      <c r="B39" s="46" t="s">
+      <c r="B39" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="C39" s="47"/>
-      <c r="D39" s="47"/>
-      <c r="E39" s="47"/>
-      <c r="F39" s="47"/>
-      <c r="G39" s="47"/>
-      <c r="H39" s="48"/>
-      <c r="I39" s="49">
+      <c r="C39" s="35"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="36"/>
+      <c r="I39" s="31">
         <v>61</v>
       </c>
-      <c r="J39" s="46" t="s">
+      <c r="J39" s="34" t="s">
         <v>171</v>
       </c>
-      <c r="K39" s="47"/>
-      <c r="L39" s="47"/>
-      <c r="M39" s="47"/>
-      <c r="N39" s="48"/>
-      <c r="O39" s="46" t="s">
+      <c r="K39" s="35"/>
+      <c r="L39" s="35"/>
+      <c r="M39" s="35"/>
+      <c r="N39" s="36"/>
+      <c r="O39" s="34" t="s">
         <v>251</v>
       </c>
-      <c r="P39" s="47"/>
-      <c r="Q39" s="47"/>
-      <c r="R39" s="47"/>
-      <c r="S39" s="47"/>
-      <c r="T39" s="47"/>
-      <c r="U39" s="47"/>
-      <c r="V39" s="47"/>
-      <c r="W39" s="48"/>
-      <c r="X39" s="50" t="s">
+      <c r="P39" s="35"/>
+      <c r="Q39" s="35"/>
+      <c r="R39" s="35"/>
+      <c r="S39" s="35"/>
+      <c r="T39" s="35"/>
+      <c r="U39" s="35"/>
+      <c r="V39" s="35"/>
+      <c r="W39" s="36"/>
+      <c r="X39" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="Y39" s="49" t="s">
+      <c r="Y39" s="31" t="s">
         <v>156</v>
       </c>
-      <c r="Z39" s="49"/>
-      <c r="AA39" s="49"/>
-      <c r="AB39" s="49"/>
-      <c r="AC39" s="51"/>
-    </row>
-    <row r="40" spans="1:29" s="53" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A40" s="54" t="s">
+      <c r="Z39" s="19"/>
+      <c r="AA39" s="19"/>
+      <c r="AB39" s="19"/>
+      <c r="AC39" s="20"/>
+    </row>
+    <row r="40" spans="1:29" ht="15.75" customHeight="1">
+      <c r="A40" s="30" t="s">
         <v>147</v>
       </c>
-      <c r="B40" s="55" t="s">
+      <c r="B40" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="C40" s="56"/>
-      <c r="D40" s="56"/>
-      <c r="E40" s="56"/>
-      <c r="F40" s="56"/>
-      <c r="G40" s="56"/>
-      <c r="H40" s="57"/>
-      <c r="I40" s="58">
+      <c r="C40" s="35"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="36"/>
+      <c r="I40" s="31">
         <v>34</v>
       </c>
-      <c r="J40" s="55" t="s">
+      <c r="J40" s="34" t="s">
         <v>246</v>
       </c>
-      <c r="K40" s="56"/>
-      <c r="L40" s="56"/>
-      <c r="M40" s="56"/>
-      <c r="N40" s="57"/>
-      <c r="O40" s="55" t="s">
+      <c r="K40" s="35"/>
+      <c r="L40" s="35"/>
+      <c r="M40" s="35"/>
+      <c r="N40" s="36"/>
+      <c r="O40" s="34" t="s">
         <v>182</v>
       </c>
-      <c r="P40" s="56"/>
-      <c r="Q40" s="56"/>
-      <c r="R40" s="56"/>
-      <c r="S40" s="56"/>
-      <c r="T40" s="56"/>
-      <c r="U40" s="56"/>
-      <c r="V40" s="56"/>
-      <c r="W40" s="57"/>
-      <c r="X40" s="59" t="s">
+      <c r="P40" s="35"/>
+      <c r="Q40" s="35"/>
+      <c r="R40" s="35"/>
+      <c r="S40" s="35"/>
+      <c r="T40" s="35"/>
+      <c r="U40" s="35"/>
+      <c r="V40" s="35"/>
+      <c r="W40" s="36"/>
+      <c r="X40" s="32" t="s">
         <v>199</v>
       </c>
-      <c r="Y40" s="58"/>
-      <c r="Z40" s="58"/>
-      <c r="AA40" s="58"/>
-      <c r="AB40" s="58"/>
-      <c r="AC40" s="60"/>
-    </row>
-    <row r="41" spans="1:29" s="68" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A41" s="61" t="s">
+      <c r="Y40" s="31"/>
+      <c r="Z40" s="19"/>
+      <c r="AA40" s="19"/>
+      <c r="AB40" s="19"/>
+      <c r="AC40" s="20"/>
+    </row>
+    <row r="41" spans="1:29" ht="15.75" customHeight="1">
+      <c r="A41" s="30" t="s">
         <v>148</v>
       </c>
-      <c r="B41" s="62" t="s">
+      <c r="B41" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="C41" s="63"/>
-      <c r="D41" s="63"/>
-      <c r="E41" s="63"/>
-      <c r="F41" s="63"/>
-      <c r="G41" s="63"/>
-      <c r="H41" s="64"/>
-      <c r="I41" s="65">
+      <c r="C41" s="35"/>
+      <c r="D41" s="35"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="35"/>
+      <c r="H41" s="36"/>
+      <c r="I41" s="31">
         <v>37</v>
       </c>
-      <c r="J41" s="62" t="s">
+      <c r="J41" s="34" t="s">
         <v>172</v>
       </c>
-      <c r="K41" s="63"/>
-      <c r="L41" s="63"/>
-      <c r="M41" s="63"/>
-      <c r="N41" s="64"/>
-      <c r="O41" s="62" t="s">
+      <c r="K41" s="35"/>
+      <c r="L41" s="35"/>
+      <c r="M41" s="35"/>
+      <c r="N41" s="36"/>
+      <c r="O41" s="34" t="s">
         <v>183</v>
       </c>
-      <c r="P41" s="63"/>
-      <c r="Q41" s="63"/>
-      <c r="R41" s="63"/>
-      <c r="S41" s="63"/>
-      <c r="T41" s="63"/>
-      <c r="U41" s="63"/>
-      <c r="V41" s="63"/>
-      <c r="W41" s="64"/>
-      <c r="X41" s="66" t="s">
+      <c r="P41" s="35"/>
+      <c r="Q41" s="35"/>
+      <c r="R41" s="35"/>
+      <c r="S41" s="35"/>
+      <c r="T41" s="35"/>
+      <c r="U41" s="35"/>
+      <c r="V41" s="35"/>
+      <c r="W41" s="36"/>
+      <c r="X41" s="32" t="s">
         <v>200</v>
       </c>
-      <c r="Y41" s="65"/>
-      <c r="Z41" s="65"/>
-      <c r="AA41" s="65"/>
-      <c r="AB41" s="65"/>
-      <c r="AC41" s="67"/>
-    </row>
-    <row r="42" spans="1:29" s="68" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A42" s="61" t="s">
+      <c r="Y41" s="31"/>
+      <c r="Z41" s="19"/>
+      <c r="AA41" s="19"/>
+      <c r="AB41" s="19"/>
+      <c r="AC41" s="20"/>
+    </row>
+    <row r="42" spans="1:29" ht="28.5" customHeight="1">
+      <c r="A42" s="30" t="s">
         <v>148</v>
       </c>
-      <c r="B42" s="62" t="s">
+      <c r="B42" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="C42" s="63"/>
-      <c r="D42" s="63"/>
-      <c r="E42" s="63"/>
-      <c r="F42" s="63"/>
-      <c r="G42" s="63"/>
-      <c r="H42" s="64"/>
-      <c r="I42" s="65">
+      <c r="C42" s="35"/>
+      <c r="D42" s="35"/>
+      <c r="E42" s="35"/>
+      <c r="F42" s="35"/>
+      <c r="G42" s="35"/>
+      <c r="H42" s="36"/>
+      <c r="I42" s="31">
         <v>41</v>
       </c>
-      <c r="J42" s="62" t="s">
+      <c r="J42" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="K42" s="63"/>
-      <c r="L42" s="63"/>
-      <c r="M42" s="63"/>
-      <c r="N42" s="64"/>
-      <c r="O42" s="62" t="s">
+      <c r="K42" s="35"/>
+      <c r="L42" s="35"/>
+      <c r="M42" s="35"/>
+      <c r="N42" s="36"/>
+      <c r="O42" s="34" t="s">
         <v>184</v>
       </c>
-      <c r="P42" s="63"/>
-      <c r="Q42" s="63"/>
-      <c r="R42" s="63"/>
-      <c r="S42" s="63"/>
-      <c r="T42" s="63"/>
-      <c r="U42" s="63"/>
-      <c r="V42" s="63"/>
-      <c r="W42" s="64"/>
-      <c r="X42" s="66" t="s">
+      <c r="P42" s="35"/>
+      <c r="Q42" s="35"/>
+      <c r="R42" s="35"/>
+      <c r="S42" s="35"/>
+      <c r="T42" s="35"/>
+      <c r="U42" s="35"/>
+      <c r="V42" s="35"/>
+      <c r="W42" s="36"/>
+      <c r="X42" s="32" t="s">
         <v>200</v>
       </c>
-      <c r="Y42" s="65" t="s">
+      <c r="Y42" s="31" t="s">
         <v>192</v>
       </c>
-      <c r="Z42" s="65"/>
-      <c r="AA42" s="65"/>
-      <c r="AB42" s="65"/>
-      <c r="AC42" s="67"/>
-    </row>
-    <row r="43" spans="1:29" s="76" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A43" s="69" t="s">
+      <c r="Z42" s="19"/>
+      <c r="AA42" s="19"/>
+      <c r="AB42" s="19"/>
+      <c r="AC42" s="20"/>
+    </row>
+    <row r="43" spans="1:29" ht="15.75" customHeight="1">
+      <c r="A43" s="30" t="s">
         <v>149</v>
       </c>
-      <c r="B43" s="70" t="s">
+      <c r="B43" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="C43" s="71"/>
-      <c r="D43" s="71"/>
-      <c r="E43" s="71"/>
-      <c r="F43" s="71"/>
-      <c r="G43" s="71"/>
-      <c r="H43" s="72"/>
-      <c r="I43" s="73">
+      <c r="C43" s="35"/>
+      <c r="D43" s="35"/>
+      <c r="E43" s="35"/>
+      <c r="F43" s="35"/>
+      <c r="G43" s="35"/>
+      <c r="H43" s="36"/>
+      <c r="I43" s="31">
         <v>113</v>
       </c>
-      <c r="J43" s="70"/>
-      <c r="K43" s="71"/>
-      <c r="L43" s="71"/>
-      <c r="M43" s="71"/>
-      <c r="N43" s="72"/>
-      <c r="O43" s="70" t="s">
+      <c r="J43" s="34"/>
+      <c r="K43" s="35"/>
+      <c r="L43" s="35"/>
+      <c r="M43" s="35"/>
+      <c r="N43" s="36"/>
+      <c r="O43" s="34" t="s">
         <v>244</v>
       </c>
-      <c r="P43" s="71"/>
-      <c r="Q43" s="71"/>
-      <c r="R43" s="71"/>
-      <c r="S43" s="71"/>
-      <c r="T43" s="71"/>
-      <c r="U43" s="71"/>
-      <c r="V43" s="71"/>
-      <c r="W43" s="72"/>
-      <c r="X43" s="74" t="s">
+      <c r="P43" s="35"/>
+      <c r="Q43" s="35"/>
+      <c r="R43" s="35"/>
+      <c r="S43" s="35"/>
+      <c r="T43" s="35"/>
+      <c r="U43" s="35"/>
+      <c r="V43" s="35"/>
+      <c r="W43" s="36"/>
+      <c r="X43" s="32" t="s">
         <v>201</v>
       </c>
-      <c r="Y43" s="73"/>
-      <c r="Z43" s="73"/>
-      <c r="AA43" s="73"/>
-      <c r="AB43" s="73"/>
-      <c r="AC43" s="75"/>
-    </row>
-    <row r="44" spans="1:29" s="84" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A44" s="77" t="s">
+      <c r="Y43" s="31"/>
+      <c r="Z43" s="19"/>
+      <c r="AA43" s="19"/>
+      <c r="AB43" s="19"/>
+      <c r="AC43" s="20"/>
+    </row>
+    <row r="44" spans="1:29" ht="15.75" customHeight="1">
+      <c r="A44" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="B44" s="78" t="s">
+      <c r="B44" s="34" t="s">
         <v>162</v>
       </c>
-      <c r="C44" s="79"/>
-      <c r="D44" s="79"/>
-      <c r="E44" s="79"/>
-      <c r="F44" s="79"/>
-      <c r="G44" s="79"/>
-      <c r="H44" s="80"/>
-      <c r="I44" s="81">
+      <c r="C44" s="35"/>
+      <c r="D44" s="35"/>
+      <c r="E44" s="35"/>
+      <c r="F44" s="35"/>
+      <c r="G44" s="35"/>
+      <c r="H44" s="36"/>
+      <c r="I44" s="31">
         <v>61</v>
       </c>
-      <c r="J44" s="78" t="s">
+      <c r="J44" s="34" t="s">
         <v>174</v>
       </c>
-      <c r="K44" s="79"/>
-      <c r="L44" s="79"/>
-      <c r="M44" s="79"/>
-      <c r="N44" s="80"/>
-      <c r="O44" s="78" t="s">
+      <c r="K44" s="35"/>
+      <c r="L44" s="35"/>
+      <c r="M44" s="35"/>
+      <c r="N44" s="36"/>
+      <c r="O44" s="34" t="s">
         <v>250</v>
       </c>
-      <c r="P44" s="79"/>
-      <c r="Q44" s="79"/>
-      <c r="R44" s="79"/>
-      <c r="S44" s="79"/>
-      <c r="T44" s="79"/>
-      <c r="U44" s="79"/>
-      <c r="V44" s="79"/>
-      <c r="W44" s="80"/>
-      <c r="X44" s="82" t="s">
+      <c r="P44" s="35"/>
+      <c r="Q44" s="35"/>
+      <c r="R44" s="35"/>
+      <c r="S44" s="35"/>
+      <c r="T44" s="35"/>
+      <c r="U44" s="35"/>
+      <c r="V44" s="35"/>
+      <c r="W44" s="36"/>
+      <c r="X44" s="32" t="s">
         <v>202</v>
       </c>
-      <c r="Y44" s="81" t="s">
+      <c r="Y44" s="31" t="s">
         <v>156</v>
       </c>
-      <c r="Z44" s="81"/>
-      <c r="AA44" s="81"/>
-      <c r="AB44" s="81"/>
-      <c r="AC44" s="83"/>
+      <c r="Z44" s="19"/>
+      <c r="AA44" s="19"/>
+      <c r="AB44" s="19"/>
+      <c r="AC44" s="20"/>
     </row>
     <row r="45" spans="1:29" ht="15.75" customHeight="1">
       <c r="A45" s="30" t="s">
@@ -5495,33 +4656,33 @@
       <c r="B48" s="34" t="s">
         <v>166</v>
       </c>
-      <c r="C48" s="35"/>
-      <c r="D48" s="35"/>
-      <c r="E48" s="35"/>
-      <c r="F48" s="35"/>
-      <c r="G48" s="35"/>
-      <c r="H48" s="36"/>
+      <c r="C48" s="45"/>
+      <c r="D48" s="45"/>
+      <c r="E48" s="45"/>
+      <c r="F48" s="45"/>
+      <c r="G48" s="45"/>
+      <c r="H48" s="46"/>
       <c r="I48" s="31">
         <v>61</v>
       </c>
       <c r="J48" s="34" t="s">
         <v>178</v>
       </c>
-      <c r="K48" s="35"/>
-      <c r="L48" s="35"/>
-      <c r="M48" s="35"/>
-      <c r="N48" s="36"/>
+      <c r="K48" s="45"/>
+      <c r="L48" s="45"/>
+      <c r="M48" s="45"/>
+      <c r="N48" s="46"/>
       <c r="O48" s="34" t="s">
         <v>252</v>
       </c>
-      <c r="P48" s="35"/>
-      <c r="Q48" s="35"/>
-      <c r="R48" s="35"/>
-      <c r="S48" s="35"/>
-      <c r="T48" s="35"/>
-      <c r="U48" s="35"/>
-      <c r="V48" s="35"/>
-      <c r="W48" s="36"/>
+      <c r="P48" s="45"/>
+      <c r="Q48" s="45"/>
+      <c r="R48" s="45"/>
+      <c r="S48" s="45"/>
+      <c r="T48" s="45"/>
+      <c r="U48" s="45"/>
+      <c r="V48" s="45"/>
+      <c r="W48" s="46"/>
       <c r="X48" s="32" t="s">
         <v>206</v>
       </c>
@@ -5538,33 +4699,33 @@
       <c r="B49" s="34" t="s">
         <v>167</v>
       </c>
-      <c r="C49" s="35"/>
-      <c r="D49" s="35"/>
-      <c r="E49" s="35"/>
-      <c r="F49" s="35"/>
-      <c r="G49" s="35"/>
-      <c r="H49" s="36"/>
+      <c r="C49" s="45"/>
+      <c r="D49" s="45"/>
+      <c r="E49" s="45"/>
+      <c r="F49" s="45"/>
+      <c r="G49" s="45"/>
+      <c r="H49" s="46"/>
       <c r="I49" s="31">
         <v>117</v>
       </c>
       <c r="J49" s="34" t="s">
         <v>179</v>
       </c>
-      <c r="K49" s="35"/>
-      <c r="L49" s="35"/>
-      <c r="M49" s="35"/>
-      <c r="N49" s="36"/>
+      <c r="K49" s="45"/>
+      <c r="L49" s="45"/>
+      <c r="M49" s="45"/>
+      <c r="N49" s="46"/>
       <c r="O49" s="34" t="s">
         <v>188</v>
       </c>
-      <c r="P49" s="35"/>
-      <c r="Q49" s="35"/>
-      <c r="R49" s="35"/>
-      <c r="S49" s="35"/>
-      <c r="T49" s="35"/>
-      <c r="U49" s="35"/>
-      <c r="V49" s="35"/>
-      <c r="W49" s="36"/>
+      <c r="P49" s="45"/>
+      <c r="Q49" s="45"/>
+      <c r="R49" s="45"/>
+      <c r="S49" s="45"/>
+      <c r="T49" s="45"/>
+      <c r="U49" s="45"/>
+      <c r="V49" s="45"/>
+      <c r="W49" s="46"/>
       <c r="X49" s="32" t="s">
         <v>207</v>
       </c>
@@ -5583,33 +4744,33 @@
       <c r="B50" s="34" t="s">
         <v>168</v>
       </c>
-      <c r="C50" s="35"/>
-      <c r="D50" s="35"/>
-      <c r="E50" s="35"/>
-      <c r="F50" s="35"/>
-      <c r="G50" s="35"/>
-      <c r="H50" s="36"/>
+      <c r="C50" s="45"/>
+      <c r="D50" s="45"/>
+      <c r="E50" s="45"/>
+      <c r="F50" s="45"/>
+      <c r="G50" s="45"/>
+      <c r="H50" s="46"/>
       <c r="I50" s="31">
         <v>108</v>
       </c>
       <c r="J50" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="K50" s="35"/>
-      <c r="L50" s="35"/>
-      <c r="M50" s="35"/>
-      <c r="N50" s="36"/>
+      <c r="K50" s="45"/>
+      <c r="L50" s="45"/>
+      <c r="M50" s="45"/>
+      <c r="N50" s="46"/>
       <c r="O50" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="P50" s="35"/>
-      <c r="Q50" s="35"/>
-      <c r="R50" s="35"/>
-      <c r="S50" s="35"/>
-      <c r="T50" s="35"/>
-      <c r="U50" s="35"/>
-      <c r="V50" s="35"/>
-      <c r="W50" s="36"/>
+      <c r="P50" s="45"/>
+      <c r="Q50" s="45"/>
+      <c r="R50" s="45"/>
+      <c r="S50" s="45"/>
+      <c r="T50" s="45"/>
+      <c r="U50" s="45"/>
+      <c r="V50" s="45"/>
+      <c r="W50" s="46"/>
       <c r="X50" s="32" t="s">
         <v>208</v>
       </c>
@@ -5698,45 +4859,6 @@
       <c r="AA53" s="22"/>
       <c r="AB53" s="22"/>
       <c r="AC53" s="22"/>
-    </row>
-    <row r="54" spans="1:29">
-      <c r="A54" s="23" t="s">
-        <v>211</v>
-      </c>
-      <c r="B54" s="22"/>
-      <c r="C54" s="22"/>
-      <c r="D54" s="22"/>
-      <c r="E54" s="22"/>
-      <c r="F54" s="22"/>
-      <c r="G54" s="23" t="s">
-        <v>220</v>
-      </c>
-      <c r="H54" s="22"/>
-      <c r="I54" s="22"/>
-      <c r="J54" s="22"/>
-      <c r="K54" s="22"/>
-      <c r="L54" s="22"/>
-      <c r="M54" s="23" t="s">
-        <v>224</v>
-      </c>
-      <c r="N54" s="22"/>
-      <c r="O54" s="22"/>
-      <c r="P54" s="22"/>
-      <c r="Q54" s="22"/>
-      <c r="R54" s="22"/>
-      <c r="S54" s="22"/>
-      <c r="T54" s="23" t="s">
-        <v>233</v>
-      </c>
-      <c r="U54" s="22"/>
-      <c r="V54" s="22"/>
-      <c r="W54" s="22"/>
-      <c r="X54" s="22"/>
-      <c r="Y54" s="22"/>
-      <c r="Z54" s="22"/>
-      <c r="AA54" s="22"/>
-      <c r="AB54" s="22"/>
-      <c r="AC54" s="22"/>
     </row>
     <row r="55" spans="1:29">
       <c r="A55" s="23" t="s">
@@ -6099,6 +5221,15 @@
     </row>
   </sheetData>
   <mergeCells count="64">
+    <mergeCell ref="B49:H49"/>
+    <mergeCell ref="B48:H48"/>
+    <mergeCell ref="B50:H50"/>
+    <mergeCell ref="O50:W50"/>
+    <mergeCell ref="O49:W49"/>
+    <mergeCell ref="O48:W48"/>
+    <mergeCell ref="J48:N48"/>
+    <mergeCell ref="J50:N50"/>
+    <mergeCell ref="J49:N49"/>
     <mergeCell ref="W3:Z3"/>
     <mergeCell ref="D5:G5"/>
     <mergeCell ref="H5:L5"/>
@@ -6143,16 +5274,10 @@
     <mergeCell ref="O43:W43"/>
     <mergeCell ref="B45:H45"/>
     <mergeCell ref="B44:H44"/>
-    <mergeCell ref="B50:H50"/>
-    <mergeCell ref="J49:N49"/>
-    <mergeCell ref="J50:N50"/>
     <mergeCell ref="J46:N46"/>
     <mergeCell ref="J47:N47"/>
     <mergeCell ref="B46:H46"/>
     <mergeCell ref="B47:H47"/>
-    <mergeCell ref="B48:H48"/>
-    <mergeCell ref="B49:H49"/>
-    <mergeCell ref="J48:N48"/>
     <mergeCell ref="O44:W44"/>
     <mergeCell ref="O45:W45"/>
     <mergeCell ref="J43:N43"/>
@@ -6160,139 +5285,7 @@
     <mergeCell ref="J45:N45"/>
     <mergeCell ref="O46:W46"/>
     <mergeCell ref="O47:W47"/>
-    <mergeCell ref="O48:W48"/>
-    <mergeCell ref="O49:W49"/>
-    <mergeCell ref="O50:W50"/>
   </mergeCells>
-  <conditionalFormatting sqref="D7:Z34">
-    <cfRule type="containsText" dxfId="28" priority="41" operator="containsText" text="ПВ">
-      <formula>NOT(ISERROR(SEARCH("ПВ",D7)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="40" operator="containsText" text="Отп">
-      <formula>NOT(ISERROR(SEARCH("Отп",D7)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="38" operator="containsText" text="ЭкзС">
-      <formula>NOT(ISERROR(SEARCH("ЭкзС",D7)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="39" operator="containsText" text="Э">
-      <formula>NOT(ISERROR(SEARCH("Э",D7)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="37" operator="containsText" text="ФП">
-      <formula>NOT(ISERROR(SEARCH("ФП",D7)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="36" operator="containsText" text="РХБЗ">
-      <formula>NOT(ISERROR(SEARCH("РХБЗ",D7)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="35" operator="containsText" text="СУБД">
-      <formula>NOT(ISERROR(SEARCH("СУБД",D7)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="34" operator="containsText" text="МП">
-      <formula>NOT(ISERROR(SEARCH("МП",D7)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="33" operator="containsText" text="ИП">
-      <formula>NOT(ISERROR(SEARCH("ИП",D7)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="32" operator="containsText" text="ДсМ">
-      <formula>NOT(ISERROR(SEARCH("ДсМ",D7)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="31" operator="containsText" text="МАД">
-      <formula>NOT(ISERROR(SEARCH("МАД",D7)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="30" operator="containsText" text="ПП">
-      <formula>NOT(ISERROR(SEARCH("ПП",D7)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="29" operator="containsText" text="ИЯ">
-      <formula>NOT(ISERROR(SEARCH("ИЯ",D7)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="15" operator="containsText" text="ЗГТ">
-      <formula>NOT(ISERROR(SEARCH("ЗГТ",D7)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A39">
-    <cfRule type="containsText" dxfId="79" priority="16" operator="containsText" text="ИЯ">
-      <formula>NOT(ISERROR(SEARCH("ИЯ",A39)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="17" operator="containsText" text="ПП">
-      <formula>NOT(ISERROR(SEARCH("ПП",A39)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="77" priority="18" operator="containsText" text="МАД">
-      <formula>NOT(ISERROR(SEARCH("МАД",A39)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="19" operator="containsText" text="ДсМ">
-      <formula>NOT(ISERROR(SEARCH("ДсМ",A39)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="75" priority="20" operator="containsText" text="ИП">
-      <formula>NOT(ISERROR(SEARCH("ИП",A39)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="21" operator="containsText" text="МП">
-      <formula>NOT(ISERROR(SEARCH("МП",A39)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="22" operator="containsText" text="СУБД">
-      <formula>NOT(ISERROR(SEARCH("СУБД",A39)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="23" operator="containsText" text="РХБЗ">
-      <formula>NOT(ISERROR(SEARCH("РХБЗ",A39)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="71" priority="24" operator="containsText" text="ФП">
-      <formula>NOT(ISERROR(SEARCH("ФП",A39)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="25" operator="containsText" text="ЭкзС">
-      <formula>NOT(ISERROR(SEARCH("ЭкзС",A39)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="26" operator="containsText" text="Э">
-      <formula>NOT(ISERROR(SEARCH("Э",A39)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="27" operator="containsText" text="Отп">
-      <formula>NOT(ISERROR(SEARCH("Отп",A39)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="67" priority="28" operator="containsText" text="ПВ">
-      <formula>NOT(ISERROR(SEARCH("ПВ",A39)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A44">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="ЗГТ">
-      <formula>NOT(ISERROR(SEARCH("ЗГТ",A44)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="ИЯ">
-      <formula>NOT(ISERROR(SEARCH("ИЯ",A44)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="ПП">
-      <formula>NOT(ISERROR(SEARCH("ПП",A44)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="МАД">
-      <formula>NOT(ISERROR(SEARCH("МАД",A44)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="ДсМ">
-      <formula>NOT(ISERROR(SEARCH("ДсМ",A44)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="ИП">
-      <formula>NOT(ISERROR(SEARCH("ИП",A44)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="МП">
-      <formula>NOT(ISERROR(SEARCH("МП",A44)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="СУБД">
-      <formula>NOT(ISERROR(SEARCH("СУБД",A44)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="РХБЗ">
-      <formula>NOT(ISERROR(SEARCH("РХБЗ",A44)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="ФП">
-      <formula>NOT(ISERROR(SEARCH("ФП",A44)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="11" operator="containsText" text="ЭкзС">
-      <formula>NOT(ISERROR(SEARCH("ЭкзС",A44)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="12" operator="containsText" text="Э">
-      <formula>NOT(ISERROR(SEARCH("Э",A44)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="13" operator="containsText" text="Отп">
-      <formula>NOT(ISERROR(SEARCH("Отп",A44)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="14" operator="containsText" text="ПВ">
-      <formula>NOT(ISERROR(SEARCH("ПВ",A44)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="31" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>

--- a/files/611-11.xlsx
+++ b/files/611-11.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vipko\WebstormProjects\schedule-viewer\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB57067B-3E8C-46A3-B6D2-152B86982546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E513421-4C81-409D-84F2-8E03189C96C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="249">
   <si>
     <t>Расписание учебных занятий на осенний семестр</t>
   </si>
@@ -876,9 +876,6 @@
     <t>л      лекция</t>
   </si>
   <si>
-    <t>с     семинар</t>
-  </si>
-  <si>
     <t>у     групповые упражнения</t>
   </si>
   <si>
@@ -903,9 +900,6 @@
     <t>кр        контрольная работа</t>
   </si>
   <si>
-    <t>зч, з/о   зачет, зачет с оценкой</t>
-  </si>
-  <si>
     <t>э       экзамен</t>
   </si>
   <si>
@@ -915,9 +909,6 @@
     <t>ОП        огневая подготовка</t>
   </si>
   <si>
-    <t>Стаж     войсковая стажировка</t>
-  </si>
-  <si>
     <t>ЭПр      эксплуатационная практика</t>
   </si>
   <si>
@@ -940,9 +931,6 @@
   </si>
   <si>
     <t>КШВИ   КШВИ</t>
-  </si>
-  <si>
-    <t>Отп       каникулярный отпуск</t>
   </si>
   <si>
     <t>Акад     учебные занятия академ. курсов</t>
@@ -1346,19 +1334,16 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1370,17 +1355,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1701,8 +1689,8 @@
   </sheetPr>
   <dimension ref="A1:AC67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48:XFD50"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J44" sqref="J44:N44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -1713,32 +1701,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="17.399999999999999">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42" t="s">
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="42"/>
-      <c r="S1" s="42"/>
-      <c r="T1" s="42"/>
-      <c r="U1" s="42"/>
-      <c r="V1" s="42"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
+      <c r="U1" s="41"/>
+      <c r="V1" s="41"/>
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
@@ -1748,32 +1736,32 @@
       <c r="AC1" s="1"/>
     </row>
     <row r="2" spans="1:29" ht="17.399999999999999">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42" t="s">
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="42"/>
-      <c r="R2" s="42"/>
-      <c r="S2" s="42"/>
-      <c r="T2" s="42"/>
-      <c r="U2" s="42"/>
-      <c r="V2" s="42"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="41"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="41"/>
+      <c r="U2" s="41"/>
+      <c r="V2" s="41"/>
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
@@ -1792,29 +1780,29 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="43" t="s">
+      <c r="J3" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="43"/>
-      <c r="R3" s="43"/>
-      <c r="S3" s="43"/>
-      <c r="T3" s="43"/>
-      <c r="U3" s="43"/>
-      <c r="V3" s="43"/>
-      <c r="W3" s="43" t="s">
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
+      <c r="S3" s="37"/>
+      <c r="T3" s="37"/>
+      <c r="U3" s="37"/>
+      <c r="V3" s="37"/>
+      <c r="W3" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="X3" s="43"/>
-      <c r="Y3" s="43"/>
-      <c r="Z3" s="43"/>
+      <c r="X3" s="37"/>
+      <c r="Y3" s="37"/>
+      <c r="Z3" s="37"/>
       <c r="AA3" s="33" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="AB3" s="1"/>
       <c r="AC3" s="1"/>
@@ -1912,47 +1900,47 @@
       <c r="C5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="44" t="s">
+      <c r="D5" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44" t="s">
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="44" t="s">
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="N5" s="44"/>
-      <c r="O5" s="44"/>
-      <c r="P5" s="44"/>
-      <c r="Q5" s="44" t="s">
+      <c r="N5" s="38"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="38"/>
+      <c r="Q5" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="R5" s="44"/>
-      <c r="S5" s="44"/>
-      <c r="T5" s="44"/>
-      <c r="U5" s="44" t="s">
+      <c r="R5" s="38"/>
+      <c r="S5" s="38"/>
+      <c r="T5" s="38"/>
+      <c r="U5" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="V5" s="44"/>
-      <c r="W5" s="44"/>
-      <c r="X5" s="44"/>
-      <c r="Y5" s="44"/>
-      <c r="Z5" s="44" t="s">
+      <c r="V5" s="38"/>
+      <c r="W5" s="38"/>
+      <c r="X5" s="38"/>
+      <c r="Y5" s="38"/>
+      <c r="Z5" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="AA5" s="44"/>
-      <c r="AB5" s="44"/>
-      <c r="AC5" s="44"/>
+      <c r="AA5" s="38"/>
+      <c r="AB5" s="38"/>
+      <c r="AC5" s="38"/>
     </row>
     <row r="6" spans="1:29">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="39" t="s">
         <v>25</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -2041,7 +2029,7 @@
       </c>
     </row>
     <row r="7" spans="1:29" ht="46.8">
-      <c r="A7" s="40"/>
+      <c r="A7" s="39"/>
       <c r="B7" s="6" t="s">
         <v>16</v>
       </c>
@@ -2115,7 +2103,7 @@
       <c r="AC7" s="9"/>
     </row>
     <row r="8" spans="1:29" ht="46.8">
-      <c r="A8" s="40"/>
+      <c r="A8" s="39"/>
       <c r="B8" s="6" t="s">
         <v>17</v>
       </c>
@@ -2192,7 +2180,7 @@
       <c r="AC8" s="9"/>
     </row>
     <row r="9" spans="1:29" ht="46.8">
-      <c r="A9" s="40"/>
+      <c r="A9" s="39"/>
       <c r="B9" s="6" t="s">
         <v>18</v>
       </c>
@@ -2269,7 +2257,7 @@
       <c r="AC9" s="9"/>
     </row>
     <row r="10" spans="1:29" ht="46.8">
-      <c r="A10" s="40"/>
+      <c r="A10" s="39"/>
       <c r="B10" s="6" t="s">
         <v>19</v>
       </c>
@@ -2336,7 +2324,7 @@
       <c r="AC10" s="9"/>
     </row>
     <row r="11" spans="1:29">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="39" t="s">
         <v>26</v>
       </c>
       <c r="B11" s="6" t="s">
@@ -2425,7 +2413,7 @@
       </c>
     </row>
     <row r="12" spans="1:29" ht="46.8">
-      <c r="A12" s="40"/>
+      <c r="A12" s="39"/>
       <c r="B12" s="6" t="s">
         <v>16</v>
       </c>
@@ -2467,7 +2455,7 @@
         <v>66</v>
       </c>
       <c r="R12" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="S12" s="11" t="s">
         <v>60</v>
@@ -2498,7 +2486,7 @@
       <c r="AC12" s="9"/>
     </row>
     <row r="13" spans="1:29" ht="46.8">
-      <c r="A13" s="40"/>
+      <c r="A13" s="39"/>
       <c r="B13" s="6" t="s">
         <v>17</v>
       </c>
@@ -2544,7 +2532,7 @@
         <v>66</v>
       </c>
       <c r="R13" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="S13" s="11" t="s">
         <v>60</v>
@@ -2575,7 +2563,7 @@
       <c r="AC13" s="9"/>
     </row>
     <row r="14" spans="1:29" ht="46.8">
-      <c r="A14" s="40"/>
+      <c r="A14" s="39"/>
       <c r="B14" s="6" t="s">
         <v>18</v>
       </c>
@@ -2619,7 +2607,7 @@
         <v>66</v>
       </c>
       <c r="R14" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="S14" s="11" t="s">
         <v>78</v>
@@ -2650,7 +2638,7 @@
       <c r="AC14" s="9"/>
     </row>
     <row r="15" spans="1:29" ht="46.8">
-      <c r="A15" s="40"/>
+      <c r="A15" s="39"/>
       <c r="B15" s="6" t="s">
         <v>19</v>
       </c>
@@ -2688,7 +2676,7 @@
         <v>66</v>
       </c>
       <c r="R15" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="S15" s="11" t="s">
         <v>78</v>
@@ -2719,7 +2707,7 @@
       <c r="AC15" s="9"/>
     </row>
     <row r="16" spans="1:29">
-      <c r="A16" s="40" t="s">
+      <c r="A16" s="39" t="s">
         <v>27</v>
       </c>
       <c r="B16" s="6" t="s">
@@ -2808,7 +2796,7 @@
       </c>
     </row>
     <row r="17" spans="1:29" ht="46.8">
-      <c r="A17" s="40"/>
+      <c r="A17" s="39"/>
       <c r="B17" s="6" t="s">
         <v>16</v>
       </c>
@@ -2885,7 +2873,7 @@
       <c r="AC17" s="9"/>
     </row>
     <row r="18" spans="1:29" ht="46.8">
-      <c r="A18" s="40"/>
+      <c r="A18" s="39"/>
       <c r="B18" s="6" t="s">
         <v>17</v>
       </c>
@@ -2962,7 +2950,7 @@
       <c r="AC18" s="9"/>
     </row>
     <row r="19" spans="1:29" ht="46.8">
-      <c r="A19" s="40"/>
+      <c r="A19" s="39"/>
       <c r="B19" s="6" t="s">
         <v>18</v>
       </c>
@@ -3036,7 +3024,7 @@
       <c r="AC19" s="9"/>
     </row>
     <row r="20" spans="1:29" ht="46.8">
-      <c r="A20" s="40"/>
+      <c r="A20" s="39"/>
       <c r="B20" s="6" t="s">
         <v>19</v>
       </c>
@@ -3099,7 +3087,7 @@
       <c r="AC20" s="9"/>
     </row>
     <row r="21" spans="1:29">
-      <c r="A21" s="40" t="s">
+      <c r="A21" s="39" t="s">
         <v>28</v>
       </c>
       <c r="B21" s="6" t="s">
@@ -3188,7 +3176,7 @@
       </c>
     </row>
     <row r="22" spans="1:29" ht="46.8">
-      <c r="A22" s="40"/>
+      <c r="A22" s="39"/>
       <c r="B22" s="6" t="s">
         <v>16</v>
       </c>
@@ -3230,7 +3218,7 @@
         <v>104</v>
       </c>
       <c r="P22" s="11" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="Q22" s="9"/>
       <c r="R22" s="9"/>
@@ -3263,7 +3251,7 @@
       <c r="AC22" s="9"/>
     </row>
     <row r="23" spans="1:29" ht="46.8">
-      <c r="A23" s="40"/>
+      <c r="A23" s="39"/>
       <c r="B23" s="6" t="s">
         <v>17</v>
       </c>
@@ -3301,7 +3289,7 @@
         <v>104</v>
       </c>
       <c r="P23" s="11" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="Q23" s="9"/>
       <c r="R23" s="9"/>
@@ -3332,7 +3320,7 @@
       <c r="AC23" s="9"/>
     </row>
     <row r="24" spans="1:29" ht="46.8">
-      <c r="A24" s="40"/>
+      <c r="A24" s="39"/>
       <c r="B24" s="6" t="s">
         <v>18</v>
       </c>
@@ -3374,7 +3362,7 @@
         <v>113</v>
       </c>
       <c r="P24" s="11" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="Q24" s="11" t="s">
         <v>114</v>
@@ -3411,7 +3399,7 @@
       <c r="AC24" s="9"/>
     </row>
     <row r="25" spans="1:29" ht="46.8">
-      <c r="A25" s="40"/>
+      <c r="A25" s="39"/>
       <c r="B25" s="6" t="s">
         <v>19</v>
       </c>
@@ -3423,7 +3411,7 @@
         <v>31</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
@@ -3468,7 +3456,7 @@
       <c r="AC25" s="9"/>
     </row>
     <row r="26" spans="1:29">
-      <c r="A26" s="40" t="s">
+      <c r="A26" s="39" t="s">
         <v>29</v>
       </c>
       <c r="B26" s="6" t="s">
@@ -3557,7 +3545,7 @@
       </c>
     </row>
     <row r="27" spans="1:29" ht="46.8">
-      <c r="A27" s="40"/>
+      <c r="A27" s="39"/>
       <c r="B27" s="6" t="s">
         <v>16</v>
       </c>
@@ -3630,7 +3618,7 @@
       <c r="AC27" s="9"/>
     </row>
     <row r="28" spans="1:29" ht="46.8">
-      <c r="A28" s="40"/>
+      <c r="A28" s="39"/>
       <c r="B28" s="6" t="s">
         <v>17</v>
       </c>
@@ -3705,7 +3693,7 @@
       <c r="AC28" s="9"/>
     </row>
     <row r="29" spans="1:29" ht="62.4">
-      <c r="A29" s="40"/>
+      <c r="A29" s="39"/>
       <c r="B29" s="6" t="s">
         <v>18</v>
       </c>
@@ -3726,7 +3714,7 @@
         <v>112</v>
       </c>
       <c r="I29" s="11" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="J29" s="10" t="s">
         <v>31</v>
@@ -3778,7 +3766,7 @@
       <c r="AC29" s="9"/>
     </row>
     <row r="30" spans="1:29" ht="46.8">
-      <c r="A30" s="40"/>
+      <c r="A30" s="39"/>
       <c r="B30" s="6" t="s">
         <v>19</v>
       </c>
@@ -3834,7 +3822,7 @@
       <c r="AC30" s="9"/>
     </row>
     <row r="31" spans="1:29">
-      <c r="A31" s="40" t="s">
+      <c r="A31" s="39" t="s">
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
@@ -3923,7 +3911,7 @@
       </c>
     </row>
     <row r="32" spans="1:29" ht="46.8">
-      <c r="A32" s="40"/>
+      <c r="A32" s="39"/>
       <c r="B32" s="6" t="s">
         <v>16</v>
       </c>
@@ -3994,7 +3982,7 @@
       <c r="AC32" s="9"/>
     </row>
     <row r="33" spans="1:29" ht="46.8">
-      <c r="A33" s="40"/>
+      <c r="A33" s="39"/>
       <c r="B33" s="6" t="s">
         <v>17</v>
       </c>
@@ -4063,7 +4051,7 @@
       <c r="AC33" s="9"/>
     </row>
     <row r="34" spans="1:29" ht="46.8">
-      <c r="A34" s="41"/>
+      <c r="A34" s="40"/>
       <c r="B34" s="13" t="s">
         <v>18</v>
       </c>
@@ -4134,114 +4122,114 @@
       <c r="AC34" s="16"/>
     </row>
     <row r="36" spans="1:29" ht="31.5" customHeight="1">
-      <c r="A36" s="39" t="s">
+      <c r="A36" s="44" t="s">
         <v>145</v>
       </c>
-      <c r="B36" s="37" t="s">
+      <c r="B36" s="45" t="s">
         <v>157</v>
       </c>
-      <c r="C36" s="37"/>
-      <c r="D36" s="37"/>
-      <c r="E36" s="37"/>
-      <c r="F36" s="37"/>
-      <c r="G36" s="37"/>
-      <c r="H36" s="37"/>
-      <c r="I36" s="37" t="s">
+      <c r="C36" s="45"/>
+      <c r="D36" s="45"/>
+      <c r="E36" s="45"/>
+      <c r="F36" s="45"/>
+      <c r="G36" s="45"/>
+      <c r="H36" s="45"/>
+      <c r="I36" s="45" t="s">
         <v>169</v>
       </c>
-      <c r="J36" s="37" t="s">
+      <c r="J36" s="45" t="s">
         <v>170</v>
       </c>
-      <c r="K36" s="37"/>
-      <c r="L36" s="37"/>
-      <c r="M36" s="37"/>
-      <c r="N36" s="37"/>
-      <c r="O36" s="37" t="s">
+      <c r="K36" s="45"/>
+      <c r="L36" s="45"/>
+      <c r="M36" s="45"/>
+      <c r="N36" s="45"/>
+      <c r="O36" s="45" t="s">
         <v>181</v>
       </c>
-      <c r="P36" s="37"/>
-      <c r="Q36" s="37"/>
-      <c r="R36" s="37"/>
-      <c r="S36" s="37"/>
-      <c r="T36" s="37"/>
-      <c r="U36" s="37"/>
-      <c r="V36" s="37"/>
-      <c r="W36" s="37"/>
-      <c r="X36" s="37" t="s">
+      <c r="P36" s="45"/>
+      <c r="Q36" s="45"/>
+      <c r="R36" s="45"/>
+      <c r="S36" s="45"/>
+      <c r="T36" s="45"/>
+      <c r="U36" s="45"/>
+      <c r="V36" s="45"/>
+      <c r="W36" s="45"/>
+      <c r="X36" s="45" t="s">
         <v>189</v>
       </c>
-      <c r="Y36" s="37" t="s">
+      <c r="Y36" s="45" t="s">
         <v>190</v>
       </c>
-      <c r="Z36" s="37" t="s">
+      <c r="Z36" s="45" t="s">
         <v>191</v>
       </c>
-      <c r="AA36" s="37" t="s">
+      <c r="AA36" s="45" t="s">
         <v>193</v>
       </c>
-      <c r="AB36" s="37"/>
-      <c r="AC36" s="38"/>
+      <c r="AB36" s="45"/>
+      <c r="AC36" s="46"/>
     </row>
     <row r="37" spans="1:29">
-      <c r="A37" s="39"/>
-      <c r="B37" s="37"/>
-      <c r="C37" s="37"/>
-      <c r="D37" s="37"/>
-      <c r="E37" s="37"/>
-      <c r="F37" s="37"/>
-      <c r="G37" s="37"/>
-      <c r="H37" s="37"/>
-      <c r="I37" s="37"/>
-      <c r="J37" s="37"/>
-      <c r="K37" s="37"/>
-      <c r="L37" s="37"/>
-      <c r="M37" s="37"/>
-      <c r="N37" s="37"/>
-      <c r="O37" s="37"/>
-      <c r="P37" s="37"/>
-      <c r="Q37" s="37"/>
-      <c r="R37" s="37"/>
-      <c r="S37" s="37"/>
-      <c r="T37" s="37"/>
-      <c r="U37" s="37"/>
-      <c r="V37" s="37"/>
-      <c r="W37" s="37"/>
-      <c r="X37" s="37"/>
-      <c r="Y37" s="37"/>
-      <c r="Z37" s="37"/>
-      <c r="AA37" s="37" t="s">
+      <c r="A37" s="44"/>
+      <c r="B37" s="45"/>
+      <c r="C37" s="45"/>
+      <c r="D37" s="45"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="45"/>
+      <c r="G37" s="45"/>
+      <c r="H37" s="45"/>
+      <c r="I37" s="45"/>
+      <c r="J37" s="45"/>
+      <c r="K37" s="45"/>
+      <c r="L37" s="45"/>
+      <c r="M37" s="45"/>
+      <c r="N37" s="45"/>
+      <c r="O37" s="45"/>
+      <c r="P37" s="45"/>
+      <c r="Q37" s="45"/>
+      <c r="R37" s="45"/>
+      <c r="S37" s="45"/>
+      <c r="T37" s="45"/>
+      <c r="U37" s="45"/>
+      <c r="V37" s="45"/>
+      <c r="W37" s="45"/>
+      <c r="X37" s="45"/>
+      <c r="Y37" s="45"/>
+      <c r="Z37" s="45"/>
+      <c r="AA37" s="45" t="s">
         <v>194</v>
       </c>
-      <c r="AB37" s="37"/>
-      <c r="AC37" s="38"/>
+      <c r="AB37" s="45"/>
+      <c r="AC37" s="46"/>
     </row>
     <row r="38" spans="1:29">
-      <c r="A38" s="39"/>
-      <c r="B38" s="37"/>
-      <c r="C38" s="37"/>
-      <c r="D38" s="37"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="37"/>
-      <c r="G38" s="37"/>
-      <c r="H38" s="37"/>
-      <c r="I38" s="37"/>
-      <c r="J38" s="37"/>
-      <c r="K38" s="37"/>
-      <c r="L38" s="37"/>
-      <c r="M38" s="37"/>
-      <c r="N38" s="37"/>
-      <c r="O38" s="37"/>
-      <c r="P38" s="37"/>
-      <c r="Q38" s="37"/>
-      <c r="R38" s="37"/>
-      <c r="S38" s="37"/>
-      <c r="T38" s="37"/>
-      <c r="U38" s="37"/>
-      <c r="V38" s="37"/>
-      <c r="W38" s="37"/>
-      <c r="X38" s="37"/>
-      <c r="Y38" s="37"/>
-      <c r="Z38" s="37"/>
+      <c r="A38" s="44"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="45"/>
+      <c r="D38" s="45"/>
+      <c r="E38" s="45"/>
+      <c r="F38" s="45"/>
+      <c r="G38" s="45"/>
+      <c r="H38" s="45"/>
+      <c r="I38" s="45"/>
+      <c r="J38" s="45"/>
+      <c r="K38" s="45"/>
+      <c r="L38" s="45"/>
+      <c r="M38" s="45"/>
+      <c r="N38" s="45"/>
+      <c r="O38" s="45"/>
+      <c r="P38" s="45"/>
+      <c r="Q38" s="45"/>
+      <c r="R38" s="45"/>
+      <c r="S38" s="45"/>
+      <c r="T38" s="45"/>
+      <c r="U38" s="45"/>
+      <c r="V38" s="45"/>
+      <c r="W38" s="45"/>
+      <c r="X38" s="45"/>
+      <c r="Y38" s="45"/>
+      <c r="Z38" s="45"/>
       <c r="AA38" s="5" t="s">
         <v>195</v>
       </c>
@@ -4259,33 +4247,33 @@
       <c r="B39" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="C39" s="35"/>
-      <c r="D39" s="35"/>
-      <c r="E39" s="35"/>
-      <c r="F39" s="35"/>
-      <c r="G39" s="35"/>
-      <c r="H39" s="36"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="42"/>
+      <c r="G39" s="42"/>
+      <c r="H39" s="43"/>
       <c r="I39" s="31">
         <v>61</v>
       </c>
       <c r="J39" s="34" t="s">
         <v>171</v>
       </c>
-      <c r="K39" s="35"/>
-      <c r="L39" s="35"/>
-      <c r="M39" s="35"/>
-      <c r="N39" s="36"/>
+      <c r="K39" s="42"/>
+      <c r="L39" s="42"/>
+      <c r="M39" s="42"/>
+      <c r="N39" s="43"/>
       <c r="O39" s="34" t="s">
-        <v>251</v>
-      </c>
-      <c r="P39" s="35"/>
-      <c r="Q39" s="35"/>
-      <c r="R39" s="35"/>
-      <c r="S39" s="35"/>
-      <c r="T39" s="35"/>
-      <c r="U39" s="35"/>
-      <c r="V39" s="35"/>
-      <c r="W39" s="36"/>
+        <v>247</v>
+      </c>
+      <c r="P39" s="42"/>
+      <c r="Q39" s="42"/>
+      <c r="R39" s="42"/>
+      <c r="S39" s="42"/>
+      <c r="T39" s="42"/>
+      <c r="U39" s="42"/>
+      <c r="V39" s="42"/>
+      <c r="W39" s="43"/>
       <c r="X39" s="32" t="s">
         <v>198</v>
       </c>
@@ -4304,33 +4292,33 @@
       <c r="B40" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="C40" s="35"/>
-      <c r="D40" s="35"/>
-      <c r="E40" s="35"/>
-      <c r="F40" s="35"/>
-      <c r="G40" s="35"/>
-      <c r="H40" s="36"/>
+      <c r="C40" s="42"/>
+      <c r="D40" s="42"/>
+      <c r="E40" s="42"/>
+      <c r="F40" s="42"/>
+      <c r="G40" s="42"/>
+      <c r="H40" s="43"/>
       <c r="I40" s="31">
         <v>34</v>
       </c>
       <c r="J40" s="34" t="s">
-        <v>246</v>
-      </c>
-      <c r="K40" s="35"/>
-      <c r="L40" s="35"/>
-      <c r="M40" s="35"/>
-      <c r="N40" s="36"/>
+        <v>242</v>
+      </c>
+      <c r="K40" s="42"/>
+      <c r="L40" s="42"/>
+      <c r="M40" s="42"/>
+      <c r="N40" s="43"/>
       <c r="O40" s="34" t="s">
         <v>182</v>
       </c>
-      <c r="P40" s="35"/>
-      <c r="Q40" s="35"/>
-      <c r="R40" s="35"/>
-      <c r="S40" s="35"/>
-      <c r="T40" s="35"/>
-      <c r="U40" s="35"/>
-      <c r="V40" s="35"/>
-      <c r="W40" s="36"/>
+      <c r="P40" s="42"/>
+      <c r="Q40" s="42"/>
+      <c r="R40" s="42"/>
+      <c r="S40" s="42"/>
+      <c r="T40" s="42"/>
+      <c r="U40" s="42"/>
+      <c r="V40" s="42"/>
+      <c r="W40" s="43"/>
       <c r="X40" s="32" t="s">
         <v>199</v>
       </c>
@@ -4347,33 +4335,33 @@
       <c r="B41" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="C41" s="35"/>
-      <c r="D41" s="35"/>
-      <c r="E41" s="35"/>
-      <c r="F41" s="35"/>
-      <c r="G41" s="35"/>
-      <c r="H41" s="36"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="43"/>
       <c r="I41" s="31">
         <v>37</v>
       </c>
       <c r="J41" s="34" t="s">
         <v>172</v>
       </c>
-      <c r="K41" s="35"/>
-      <c r="L41" s="35"/>
-      <c r="M41" s="35"/>
-      <c r="N41" s="36"/>
+      <c r="K41" s="42"/>
+      <c r="L41" s="42"/>
+      <c r="M41" s="42"/>
+      <c r="N41" s="43"/>
       <c r="O41" s="34" t="s">
         <v>183</v>
       </c>
-      <c r="P41" s="35"/>
-      <c r="Q41" s="35"/>
-      <c r="R41" s="35"/>
-      <c r="S41" s="35"/>
-      <c r="T41" s="35"/>
-      <c r="U41" s="35"/>
-      <c r="V41" s="35"/>
-      <c r="W41" s="36"/>
+      <c r="P41" s="42"/>
+      <c r="Q41" s="42"/>
+      <c r="R41" s="42"/>
+      <c r="S41" s="42"/>
+      <c r="T41" s="42"/>
+      <c r="U41" s="42"/>
+      <c r="V41" s="42"/>
+      <c r="W41" s="43"/>
       <c r="X41" s="32" t="s">
         <v>200</v>
       </c>
@@ -4390,33 +4378,33 @@
       <c r="B42" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="C42" s="35"/>
-      <c r="D42" s="35"/>
-      <c r="E42" s="35"/>
-      <c r="F42" s="35"/>
-      <c r="G42" s="35"/>
-      <c r="H42" s="36"/>
+      <c r="C42" s="42"/>
+      <c r="D42" s="42"/>
+      <c r="E42" s="42"/>
+      <c r="F42" s="42"/>
+      <c r="G42" s="42"/>
+      <c r="H42" s="43"/>
       <c r="I42" s="31">
         <v>41</v>
       </c>
       <c r="J42" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="K42" s="35"/>
-      <c r="L42" s="35"/>
-      <c r="M42" s="35"/>
-      <c r="N42" s="36"/>
+      <c r="K42" s="42"/>
+      <c r="L42" s="42"/>
+      <c r="M42" s="42"/>
+      <c r="N42" s="43"/>
       <c r="O42" s="34" t="s">
         <v>184</v>
       </c>
-      <c r="P42" s="35"/>
-      <c r="Q42" s="35"/>
-      <c r="R42" s="35"/>
-      <c r="S42" s="35"/>
-      <c r="T42" s="35"/>
-      <c r="U42" s="35"/>
-      <c r="V42" s="35"/>
-      <c r="W42" s="36"/>
+      <c r="P42" s="42"/>
+      <c r="Q42" s="42"/>
+      <c r="R42" s="42"/>
+      <c r="S42" s="42"/>
+      <c r="T42" s="42"/>
+      <c r="U42" s="42"/>
+      <c r="V42" s="42"/>
+      <c r="W42" s="43"/>
       <c r="X42" s="32" t="s">
         <v>200</v>
       </c>
@@ -4435,31 +4423,33 @@
       <c r="B43" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="C43" s="35"/>
-      <c r="D43" s="35"/>
-      <c r="E43" s="35"/>
-      <c r="F43" s="35"/>
-      <c r="G43" s="35"/>
-      <c r="H43" s="36"/>
+      <c r="C43" s="42"/>
+      <c r="D43" s="42"/>
+      <c r="E43" s="42"/>
+      <c r="F43" s="42"/>
+      <c r="G43" s="42"/>
+      <c r="H43" s="43"/>
       <c r="I43" s="31">
         <v>113</v>
       </c>
-      <c r="J43" s="34"/>
-      <c r="K43" s="35"/>
-      <c r="L43" s="35"/>
-      <c r="M43" s="35"/>
-      <c r="N43" s="36"/>
+      <c r="J43" s="34" t="s">
+        <v>240</v>
+      </c>
+      <c r="K43" s="42"/>
+      <c r="L43" s="42"/>
+      <c r="M43" s="42"/>
+      <c r="N43" s="43"/>
       <c r="O43" s="34" t="s">
-        <v>244</v>
-      </c>
-      <c r="P43" s="35"/>
-      <c r="Q43" s="35"/>
-      <c r="R43" s="35"/>
-      <c r="S43" s="35"/>
-      <c r="T43" s="35"/>
-      <c r="U43" s="35"/>
-      <c r="V43" s="35"/>
-      <c r="W43" s="36"/>
+        <v>240</v>
+      </c>
+      <c r="P43" s="42"/>
+      <c r="Q43" s="42"/>
+      <c r="R43" s="42"/>
+      <c r="S43" s="42"/>
+      <c r="T43" s="42"/>
+      <c r="U43" s="42"/>
+      <c r="V43" s="42"/>
+      <c r="W43" s="43"/>
       <c r="X43" s="32" t="s">
         <v>201</v>
       </c>
@@ -4476,33 +4466,33 @@
       <c r="B44" s="34" t="s">
         <v>162</v>
       </c>
-      <c r="C44" s="35"/>
-      <c r="D44" s="35"/>
-      <c r="E44" s="35"/>
-      <c r="F44" s="35"/>
-      <c r="G44" s="35"/>
-      <c r="H44" s="36"/>
+      <c r="C44" s="42"/>
+      <c r="D44" s="42"/>
+      <c r="E44" s="42"/>
+      <c r="F44" s="42"/>
+      <c r="G44" s="42"/>
+      <c r="H44" s="43"/>
       <c r="I44" s="31">
         <v>61</v>
       </c>
       <c r="J44" s="34" t="s">
         <v>174</v>
       </c>
-      <c r="K44" s="35"/>
-      <c r="L44" s="35"/>
-      <c r="M44" s="35"/>
-      <c r="N44" s="36"/>
+      <c r="K44" s="42"/>
+      <c r="L44" s="42"/>
+      <c r="M44" s="42"/>
+      <c r="N44" s="43"/>
       <c r="O44" s="34" t="s">
-        <v>250</v>
-      </c>
-      <c r="P44" s="35"/>
-      <c r="Q44" s="35"/>
-      <c r="R44" s="35"/>
-      <c r="S44" s="35"/>
-      <c r="T44" s="35"/>
-      <c r="U44" s="35"/>
-      <c r="V44" s="35"/>
-      <c r="W44" s="36"/>
+        <v>246</v>
+      </c>
+      <c r="P44" s="42"/>
+      <c r="Q44" s="42"/>
+      <c r="R44" s="42"/>
+      <c r="S44" s="42"/>
+      <c r="T44" s="42"/>
+      <c r="U44" s="42"/>
+      <c r="V44" s="42"/>
+      <c r="W44" s="43"/>
       <c r="X44" s="32" t="s">
         <v>202</v>
       </c>
@@ -4521,33 +4511,33 @@
       <c r="B45" s="34" t="s">
         <v>163</v>
       </c>
-      <c r="C45" s="35"/>
-      <c r="D45" s="35"/>
-      <c r="E45" s="35"/>
-      <c r="F45" s="35"/>
-      <c r="G45" s="35"/>
-      <c r="H45" s="36"/>
+      <c r="C45" s="42"/>
+      <c r="D45" s="42"/>
+      <c r="E45" s="42"/>
+      <c r="F45" s="42"/>
+      <c r="G45" s="42"/>
+      <c r="H45" s="43"/>
       <c r="I45" s="31">
         <v>61</v>
       </c>
       <c r="J45" s="34" t="s">
         <v>175</v>
       </c>
-      <c r="K45" s="35"/>
-      <c r="L45" s="35"/>
-      <c r="M45" s="35"/>
-      <c r="N45" s="36"/>
+      <c r="K45" s="42"/>
+      <c r="L45" s="42"/>
+      <c r="M45" s="42"/>
+      <c r="N45" s="43"/>
       <c r="O45" s="34" t="s">
         <v>185</v>
       </c>
-      <c r="P45" s="35"/>
-      <c r="Q45" s="35"/>
-      <c r="R45" s="35"/>
-      <c r="S45" s="35"/>
-      <c r="T45" s="35"/>
-      <c r="U45" s="35"/>
-      <c r="V45" s="35"/>
-      <c r="W45" s="36"/>
+      <c r="P45" s="42"/>
+      <c r="Q45" s="42"/>
+      <c r="R45" s="42"/>
+      <c r="S45" s="42"/>
+      <c r="T45" s="42"/>
+      <c r="U45" s="42"/>
+      <c r="V45" s="42"/>
+      <c r="W45" s="43"/>
       <c r="X45" s="32" t="s">
         <v>203</v>
       </c>
@@ -4566,33 +4556,33 @@
       <c r="B46" s="34" t="s">
         <v>164</v>
       </c>
-      <c r="C46" s="35"/>
-      <c r="D46" s="35"/>
-      <c r="E46" s="35"/>
-      <c r="F46" s="35"/>
-      <c r="G46" s="35"/>
-      <c r="H46" s="36"/>
+      <c r="C46" s="42"/>
+      <c r="D46" s="42"/>
+      <c r="E46" s="42"/>
+      <c r="F46" s="42"/>
+      <c r="G46" s="42"/>
+      <c r="H46" s="43"/>
       <c r="I46" s="31">
         <v>108</v>
       </c>
       <c r="J46" s="34" t="s">
         <v>176</v>
       </c>
-      <c r="K46" s="35"/>
-      <c r="L46" s="35"/>
-      <c r="M46" s="35"/>
-      <c r="N46" s="36"/>
+      <c r="K46" s="42"/>
+      <c r="L46" s="42"/>
+      <c r="M46" s="42"/>
+      <c r="N46" s="43"/>
       <c r="O46" s="34" t="s">
         <v>186</v>
       </c>
-      <c r="P46" s="35"/>
-      <c r="Q46" s="35"/>
-      <c r="R46" s="35"/>
-      <c r="S46" s="35"/>
-      <c r="T46" s="35"/>
-      <c r="U46" s="35"/>
-      <c r="V46" s="35"/>
-      <c r="W46" s="36"/>
+      <c r="P46" s="42"/>
+      <c r="Q46" s="42"/>
+      <c r="R46" s="42"/>
+      <c r="S46" s="42"/>
+      <c r="T46" s="42"/>
+      <c r="U46" s="42"/>
+      <c r="V46" s="42"/>
+      <c r="W46" s="43"/>
       <c r="X46" s="32" t="s">
         <v>204</v>
       </c>
@@ -4611,33 +4601,33 @@
       <c r="B47" s="34" t="s">
         <v>165</v>
       </c>
-      <c r="C47" s="35"/>
-      <c r="D47" s="35"/>
-      <c r="E47" s="35"/>
-      <c r="F47" s="35"/>
-      <c r="G47" s="35"/>
-      <c r="H47" s="36"/>
+      <c r="C47" s="42"/>
+      <c r="D47" s="42"/>
+      <c r="E47" s="42"/>
+      <c r="F47" s="42"/>
+      <c r="G47" s="42"/>
+      <c r="H47" s="43"/>
       <c r="I47" s="31">
         <v>104</v>
       </c>
       <c r="J47" s="34" t="s">
         <v>177</v>
       </c>
-      <c r="K47" s="35"/>
-      <c r="L47" s="35"/>
-      <c r="M47" s="35"/>
-      <c r="N47" s="36"/>
+      <c r="K47" s="42"/>
+      <c r="L47" s="42"/>
+      <c r="M47" s="42"/>
+      <c r="N47" s="43"/>
       <c r="O47" s="34" t="s">
         <v>187</v>
       </c>
-      <c r="P47" s="35"/>
-      <c r="Q47" s="35"/>
-      <c r="R47" s="35"/>
-      <c r="S47" s="35"/>
-      <c r="T47" s="35"/>
-      <c r="U47" s="35"/>
-      <c r="V47" s="35"/>
-      <c r="W47" s="36"/>
+      <c r="P47" s="42"/>
+      <c r="Q47" s="42"/>
+      <c r="R47" s="42"/>
+      <c r="S47" s="42"/>
+      <c r="T47" s="42"/>
+      <c r="U47" s="42"/>
+      <c r="V47" s="42"/>
+      <c r="W47" s="43"/>
       <c r="X47" s="32" t="s">
         <v>205</v>
       </c>
@@ -4656,33 +4646,33 @@
       <c r="B48" s="34" t="s">
         <v>166</v>
       </c>
-      <c r="C48" s="45"/>
-      <c r="D48" s="45"/>
-      <c r="E48" s="45"/>
-      <c r="F48" s="45"/>
-      <c r="G48" s="45"/>
-      <c r="H48" s="46"/>
+      <c r="C48" s="35"/>
+      <c r="D48" s="35"/>
+      <c r="E48" s="35"/>
+      <c r="F48" s="35"/>
+      <c r="G48" s="35"/>
+      <c r="H48" s="36"/>
       <c r="I48" s="31">
         <v>61</v>
       </c>
       <c r="J48" s="34" t="s">
         <v>178</v>
       </c>
-      <c r="K48" s="45"/>
-      <c r="L48" s="45"/>
-      <c r="M48" s="45"/>
-      <c r="N48" s="46"/>
+      <c r="K48" s="35"/>
+      <c r="L48" s="35"/>
+      <c r="M48" s="35"/>
+      <c r="N48" s="36"/>
       <c r="O48" s="34" t="s">
-        <v>252</v>
-      </c>
-      <c r="P48" s="45"/>
-      <c r="Q48" s="45"/>
-      <c r="R48" s="45"/>
-      <c r="S48" s="45"/>
-      <c r="T48" s="45"/>
-      <c r="U48" s="45"/>
-      <c r="V48" s="45"/>
-      <c r="W48" s="46"/>
+        <v>248</v>
+      </c>
+      <c r="P48" s="35"/>
+      <c r="Q48" s="35"/>
+      <c r="R48" s="35"/>
+      <c r="S48" s="35"/>
+      <c r="T48" s="35"/>
+      <c r="U48" s="35"/>
+      <c r="V48" s="35"/>
+      <c r="W48" s="36"/>
       <c r="X48" s="32" t="s">
         <v>206</v>
       </c>
@@ -4699,33 +4689,33 @@
       <c r="B49" s="34" t="s">
         <v>167</v>
       </c>
-      <c r="C49" s="45"/>
-      <c r="D49" s="45"/>
-      <c r="E49" s="45"/>
-      <c r="F49" s="45"/>
-      <c r="G49" s="45"/>
-      <c r="H49" s="46"/>
+      <c r="C49" s="35"/>
+      <c r="D49" s="35"/>
+      <c r="E49" s="35"/>
+      <c r="F49" s="35"/>
+      <c r="G49" s="35"/>
+      <c r="H49" s="36"/>
       <c r="I49" s="31">
         <v>117</v>
       </c>
       <c r="J49" s="34" t="s">
         <v>179</v>
       </c>
-      <c r="K49" s="45"/>
-      <c r="L49" s="45"/>
-      <c r="M49" s="45"/>
-      <c r="N49" s="46"/>
+      <c r="K49" s="35"/>
+      <c r="L49" s="35"/>
+      <c r="M49" s="35"/>
+      <c r="N49" s="36"/>
       <c r="O49" s="34" t="s">
         <v>188</v>
       </c>
-      <c r="P49" s="45"/>
-      <c r="Q49" s="45"/>
-      <c r="R49" s="45"/>
-      <c r="S49" s="45"/>
-      <c r="T49" s="45"/>
-      <c r="U49" s="45"/>
-      <c r="V49" s="45"/>
-      <c r="W49" s="46"/>
+      <c r="P49" s="35"/>
+      <c r="Q49" s="35"/>
+      <c r="R49" s="35"/>
+      <c r="S49" s="35"/>
+      <c r="T49" s="35"/>
+      <c r="U49" s="35"/>
+      <c r="V49" s="35"/>
+      <c r="W49" s="36"/>
       <c r="X49" s="32" t="s">
         <v>207</v>
       </c>
@@ -4744,33 +4734,33 @@
       <c r="B50" s="34" t="s">
         <v>168</v>
       </c>
-      <c r="C50" s="45"/>
-      <c r="D50" s="45"/>
-      <c r="E50" s="45"/>
-      <c r="F50" s="45"/>
-      <c r="G50" s="45"/>
-      <c r="H50" s="46"/>
+      <c r="C50" s="35"/>
+      <c r="D50" s="35"/>
+      <c r="E50" s="35"/>
+      <c r="F50" s="35"/>
+      <c r="G50" s="35"/>
+      <c r="H50" s="36"/>
       <c r="I50" s="31">
         <v>108</v>
       </c>
       <c r="J50" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="K50" s="45"/>
-      <c r="L50" s="45"/>
-      <c r="M50" s="45"/>
-      <c r="N50" s="46"/>
+      <c r="K50" s="35"/>
+      <c r="L50" s="35"/>
+      <c r="M50" s="35"/>
+      <c r="N50" s="36"/>
       <c r="O50" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="P50" s="45"/>
-      <c r="Q50" s="45"/>
-      <c r="R50" s="45"/>
-      <c r="S50" s="45"/>
-      <c r="T50" s="45"/>
-      <c r="U50" s="45"/>
-      <c r="V50" s="45"/>
-      <c r="W50" s="46"/>
+      <c r="P50" s="35"/>
+      <c r="Q50" s="35"/>
+      <c r="R50" s="35"/>
+      <c r="S50" s="35"/>
+      <c r="T50" s="35"/>
+      <c r="U50" s="35"/>
+      <c r="V50" s="35"/>
+      <c r="W50" s="36"/>
       <c r="X50" s="32" t="s">
         <v>208</v>
       </c>
@@ -4800,7 +4790,7 @@
       <c r="K52" s="22"/>
       <c r="L52" s="22"/>
       <c r="M52" s="21" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N52" s="22"/>
       <c r="O52" s="22"/>
@@ -4809,7 +4799,7 @@
       <c r="R52" s="22"/>
       <c r="S52" s="22"/>
       <c r="T52" s="21" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="U52" s="22"/>
       <c r="V52" s="22"/>
@@ -4831,7 +4821,7 @@
       <c r="E53" s="22"/>
       <c r="F53" s="22"/>
       <c r="G53" s="23" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H53" s="22"/>
       <c r="I53" s="22"/>
@@ -4839,7 +4829,7 @@
       <c r="K53" s="22"/>
       <c r="L53" s="22"/>
       <c r="M53" s="23" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="N53" s="22"/>
       <c r="O53" s="22"/>
@@ -4848,7 +4838,7 @@
       <c r="R53" s="22"/>
       <c r="S53" s="22"/>
       <c r="T53" s="23" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="U53" s="22"/>
       <c r="V53" s="22"/>
@@ -4862,7 +4852,7 @@
     </row>
     <row r="55" spans="1:29">
       <c r="A55" s="23" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B55" s="22"/>
       <c r="C55" s="22"/>
@@ -4870,7 +4860,7 @@
       <c r="E55" s="22"/>
       <c r="F55" s="22"/>
       <c r="G55" s="23" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H55" s="22"/>
       <c r="I55" s="22"/>
@@ -4878,7 +4868,7 @@
       <c r="K55" s="22"/>
       <c r="L55" s="22"/>
       <c r="M55" s="23" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="N55" s="22"/>
       <c r="O55" s="22"/>
@@ -4887,7 +4877,7 @@
       <c r="R55" s="22"/>
       <c r="S55" s="22"/>
       <c r="T55" s="23" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="U55" s="22"/>
       <c r="V55" s="22"/>
@@ -4901,7 +4891,7 @@
     </row>
     <row r="56" spans="1:29">
       <c r="A56" s="23" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B56" s="22"/>
       <c r="C56" s="22"/>
@@ -4915,7 +4905,7 @@
       <c r="K56" s="22"/>
       <c r="L56" s="22"/>
       <c r="M56" s="23" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="N56" s="22"/>
       <c r="O56" s="22"/>
@@ -4924,7 +4914,7 @@
       <c r="R56" s="22"/>
       <c r="S56" s="22"/>
       <c r="T56" s="23" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="U56" s="22"/>
       <c r="V56" s="22"/>
@@ -4938,7 +4928,7 @@
     </row>
     <row r="57" spans="1:29">
       <c r="A57" s="23" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B57" s="22"/>
       <c r="C57" s="22"/>
@@ -4952,7 +4942,7 @@
       <c r="K57" s="22"/>
       <c r="L57" s="22"/>
       <c r="M57" s="23" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="N57" s="22"/>
       <c r="O57" s="22"/>
@@ -4961,7 +4951,7 @@
       <c r="R57" s="22"/>
       <c r="S57" s="22"/>
       <c r="T57" s="23" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="U57" s="22"/>
       <c r="V57" s="22"/>
@@ -4975,7 +4965,7 @@
     </row>
     <row r="58" spans="1:29">
       <c r="A58" s="23" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B58" s="22"/>
       <c r="C58" s="22"/>
@@ -4989,7 +4979,7 @@
       <c r="K58" s="22"/>
       <c r="L58" s="22"/>
       <c r="M58" s="23" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="N58" s="22"/>
       <c r="O58" s="22"/>
@@ -4998,7 +4988,7 @@
       <c r="R58" s="22"/>
       <c r="S58" s="22"/>
       <c r="T58" s="23" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="U58" s="22"/>
       <c r="V58" s="22"/>
@@ -5012,7 +5002,7 @@
     </row>
     <row r="59" spans="1:29">
       <c r="A59" s="23" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B59" s="22"/>
       <c r="C59" s="22"/>
@@ -5026,7 +5016,7 @@
       <c r="K59" s="22"/>
       <c r="L59" s="22"/>
       <c r="M59" s="23" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="N59" s="22"/>
       <c r="O59" s="22"/>
@@ -5035,7 +5025,7 @@
       <c r="R59" s="22"/>
       <c r="S59" s="22"/>
       <c r="T59" s="23" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="U59" s="22"/>
       <c r="V59" s="22"/>
@@ -5049,7 +5039,7 @@
     </row>
     <row r="60" spans="1:29">
       <c r="A60" s="23" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B60" s="22"/>
       <c r="C60" s="22"/>
@@ -5063,7 +5053,7 @@
       <c r="K60" s="22"/>
       <c r="L60" s="22"/>
       <c r="M60" s="23" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="N60" s="22"/>
       <c r="O60" s="22"/>
@@ -5072,7 +5062,7 @@
       <c r="R60" s="22"/>
       <c r="S60" s="22"/>
       <c r="T60" s="23" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="U60" s="22"/>
       <c r="V60" s="22"/>
@@ -5086,7 +5076,7 @@
     </row>
     <row r="61" spans="1:29">
       <c r="A61" s="23" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B61" s="22"/>
       <c r="C61" s="22"/>
@@ -5100,7 +5090,7 @@
       <c r="K61" s="22"/>
       <c r="L61" s="22"/>
       <c r="M61" s="23" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="N61" s="22"/>
       <c r="O61" s="22"/>
@@ -5172,7 +5162,7 @@
       <c r="S63" s="22"/>
       <c r="T63" s="22"/>
       <c r="U63" s="24" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="V63" s="24"/>
       <c r="W63" s="24"/>
@@ -5185,7 +5175,7 @@
     </row>
     <row r="64" spans="1:29" ht="18">
       <c r="U64" s="25" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="V64" s="25"/>
       <c r="W64" s="25"/>
@@ -5216,46 +5206,24 @@
       <c r="X67" s="25"/>
       <c r="Y67" s="25"/>
       <c r="Z67" s="25" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="B49:H49"/>
-    <mergeCell ref="B48:H48"/>
-    <mergeCell ref="B50:H50"/>
-    <mergeCell ref="O50:W50"/>
-    <mergeCell ref="O49:W49"/>
-    <mergeCell ref="O48:W48"/>
-    <mergeCell ref="J48:N48"/>
-    <mergeCell ref="J50:N50"/>
-    <mergeCell ref="J49:N49"/>
-    <mergeCell ref="W3:Z3"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="M5:P5"/>
-    <mergeCell ref="Q5:T5"/>
-    <mergeCell ref="U5:Y5"/>
-    <mergeCell ref="Z5:AC5"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="J1:V1"/>
-    <mergeCell ref="J2:V2"/>
-    <mergeCell ref="J3:V3"/>
-    <mergeCell ref="A6:A10"/>
-    <mergeCell ref="A11:A15"/>
-    <mergeCell ref="A16:A20"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="J39:N39"/>
-    <mergeCell ref="J40:N40"/>
-    <mergeCell ref="J41:N41"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="I36:I38"/>
-    <mergeCell ref="B39:H39"/>
-    <mergeCell ref="B40:H40"/>
-    <mergeCell ref="B41:H41"/>
+    <mergeCell ref="O46:W46"/>
+    <mergeCell ref="O47:W47"/>
+    <mergeCell ref="O44:W44"/>
+    <mergeCell ref="O45:W45"/>
+    <mergeCell ref="J43:N43"/>
+    <mergeCell ref="J44:N44"/>
+    <mergeCell ref="J45:N45"/>
+    <mergeCell ref="B45:H45"/>
+    <mergeCell ref="B44:H44"/>
+    <mergeCell ref="J46:N46"/>
+    <mergeCell ref="J47:N47"/>
+    <mergeCell ref="B46:H46"/>
+    <mergeCell ref="B47:H47"/>
     <mergeCell ref="B42:H42"/>
     <mergeCell ref="B43:H43"/>
     <mergeCell ref="Y36:Y38"/>
@@ -5272,19 +5240,41 @@
     <mergeCell ref="O41:W41"/>
     <mergeCell ref="O42:W42"/>
     <mergeCell ref="O43:W43"/>
-    <mergeCell ref="B45:H45"/>
-    <mergeCell ref="B44:H44"/>
-    <mergeCell ref="J46:N46"/>
-    <mergeCell ref="J47:N47"/>
-    <mergeCell ref="B46:H46"/>
-    <mergeCell ref="B47:H47"/>
-    <mergeCell ref="O44:W44"/>
-    <mergeCell ref="O45:W45"/>
-    <mergeCell ref="J43:N43"/>
-    <mergeCell ref="J44:N44"/>
-    <mergeCell ref="J45:N45"/>
-    <mergeCell ref="O46:W46"/>
-    <mergeCell ref="O47:W47"/>
+    <mergeCell ref="J39:N39"/>
+    <mergeCell ref="J40:N40"/>
+    <mergeCell ref="J41:N41"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="I36:I38"/>
+    <mergeCell ref="B39:H39"/>
+    <mergeCell ref="B40:H40"/>
+    <mergeCell ref="B41:H41"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="J1:V1"/>
+    <mergeCell ref="J2:V2"/>
+    <mergeCell ref="J3:V3"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="W3:Z3"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="M5:P5"/>
+    <mergeCell ref="Q5:T5"/>
+    <mergeCell ref="U5:Y5"/>
+    <mergeCell ref="Z5:AC5"/>
+    <mergeCell ref="B49:H49"/>
+    <mergeCell ref="B48:H48"/>
+    <mergeCell ref="B50:H50"/>
+    <mergeCell ref="O50:W50"/>
+    <mergeCell ref="O49:W49"/>
+    <mergeCell ref="O48:W48"/>
+    <mergeCell ref="J48:N48"/>
+    <mergeCell ref="J50:N50"/>
+    <mergeCell ref="J49:N49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="31" orientation="portrait" r:id="rId1"/>
